--- a/Interactive DashBoard In Excel.xlsx
+++ b/Interactive DashBoard In Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0cd6160f5f00c09b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msnaf\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="320" documentId="8_{9D902788-A9F3-4B18-B5B3-64AEAC843F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6E1D438-1CD9-4EFF-BD8D-42B8919D6957}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A389297-F830-4B75-BA9C-9F9BD85C51DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v5.0" hidden="1">Sheet2!$Z$8</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">Sheet2!$Z$9</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">Sheet2!$Z$8</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">Sheet2!$Z$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$X$31</definedName>
     <definedName name="Slicer_CUSTOMER">#N/A</definedName>
     <definedName name="Slicer_MONTH">#N/A</definedName>
@@ -172,10 +176,10 @@
     <t>Months</t>
   </si>
   <si>
-    <t>SELL RECORD OF ABC COMPANY</t>
+    <t>è</t>
   </si>
   <si>
-    <t>è</t>
+    <t>SALES RECORD OF IKEAA COMPANY</t>
   </si>
 </sst>
 </file>
@@ -505,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -604,401 +608,32 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="199">
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="591">
     <dxf>
       <font>
         <b/>
@@ -1068,6 +703,321 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1078,6 +1028,16 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -1087,368 +1047,18 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1463,6 +1073,38 @@
       </font>
     </dxf>
     <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <family val="2"/>
@@ -1489,18 +1131,331 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1523,8 +1478,17 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <b/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1532,335 +1496,40 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thick">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thick">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1915,151 +1584,176 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thick">
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thick">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thick">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thick">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-      </border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2178,110 +1872,58 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <top/>
-      </border>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -2314,6 +1956,36 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2342,38 +2014,6 @@
       </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <family val="2"/>
@@ -2386,6 +2026,3971 @@
       </font>
     </dxf>
     <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="8" tint="0.79998168889431442"/>
@@ -2426,9 +6031,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="198"/>
-      <tableStyleElement type="firstRowStripe" dxfId="197"/>
-      <tableStyleElement type="secondRowStripe" dxfId="196"/>
+      <tableStyleElement type="headerRow" dxfId="590"/>
+      <tableStyleElement type="firstRowStripe" dxfId="589"/>
+      <tableStyleElement type="secondRowStripe" dxfId="588"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3106,7 +6711,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sell by Years</a:t>
+              <a:t>Sales by Years</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6224,7 +9829,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sell By</a:t>
+              <a:t>Sales By</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -9015,10 +12620,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Muhammad Ahsan Afzal" refreshedDate="45105.782504745373" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="37" xr:uid="{B69602B1-38D2-4EBA-8DE6-B06BC9DA309C}">
   <cacheSource type="worksheet">
@@ -9456,740 +13057,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4076311B-824D-4C9D-86C4-E00FEA116784}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Years">
-  <location ref="A15:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="38">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="165" showAll="0">
-      <items count="33">
-        <item x="19"/>
-        <item x="13"/>
-        <item x="30"/>
-        <item x="21"/>
-        <item x="28"/>
-        <item x="10"/>
-        <item x="20"/>
-        <item x="16"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="26"/>
-        <item x="31"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="27"/>
-        <item x="5"/>
-        <item x="12"/>
-        <item x="24"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="17"/>
-        <item x="22"/>
-        <item x="4"/>
-        <item x="23"/>
-        <item x="9"/>
-        <item x="15"/>
-        <item x="29"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of SALES" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="47">
-    <format dxfId="46">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="45">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="44">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="40">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="31">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="28">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="25">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="18">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F8CF543-DDF3-42C8-AD30-CE61545BCF0B}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="customer name">
-  <location ref="A4:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="38">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="165" showAll="0">
-      <items count="33">
-        <item x="19"/>
-        <item x="13"/>
-        <item x="30"/>
-        <item x="21"/>
-        <item x="28"/>
-        <item x="10"/>
-        <item x="20"/>
-        <item x="16"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="26"/>
-        <item x="31"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="27"/>
-        <item x="5"/>
-        <item x="12"/>
-        <item x="24"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="17"/>
-        <item x="22"/>
-        <item x="4"/>
-        <item x="23"/>
-        <item x="9"/>
-        <item x="15"/>
-        <item x="29"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of SALES" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="48">
-    <format dxfId="94">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="93">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="92">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="91">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="90">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="89">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="88">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="87">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="86">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="85">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="84">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="83">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="82">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="81">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="80">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="79">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="78">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="77">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="76">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="75">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="74">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="73">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="72">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="71">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="70">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="69">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="68">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="67">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="66">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="65">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="63">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="62">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="61">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="60">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="59">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="57">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="56">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="55">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="53">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="50">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="49">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="48">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="47">
-      <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleDark22" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F2E184C2-B0D8-49DC-B526-C6A74DCD19C5}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Months">
   <location ref="A22:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -10371,166 +13238,166 @@
     <dataField name="Sum of SALES" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="42">
-    <format dxfId="136">
+    <format dxfId="433">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="432">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="431">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="133">
+    <format dxfId="430">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="429">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="131">
+    <format dxfId="428">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="130">
+    <format dxfId="427">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="129">
+    <format dxfId="426">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="128">
+    <format dxfId="425">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="127">
+    <format dxfId="424">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="126">
+    <format dxfId="423">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="125">
+    <format dxfId="422">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="124">
+    <format dxfId="421">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="123">
+    <format dxfId="420">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="122">
+    <format dxfId="419">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="418">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="417">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="416">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="415">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="414">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="413">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="412">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="411">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="410">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="409">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="408">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="407">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="406">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="108">
+    <format dxfId="405">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="404">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="106">
+    <format dxfId="403">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="402">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="401">
       <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="400">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="102">
+    <format dxfId="399">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="101">
+    <format dxfId="398">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="397">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="396">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="395">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="394">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="393">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="392">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10605,7 +13472,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBAB6C6E-F2F5-4188-B65F-4BBB99A3AB08}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Customer Name">
   <location ref="A37:C46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -10784,128 +13651,128 @@
     <dataField name="Sum of SALES" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="59">
-    <format dxfId="195">
+    <format dxfId="492">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="194">
+    <format dxfId="491">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="193">
+    <format dxfId="490">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="192">
+    <format dxfId="489">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="191">
+    <format dxfId="488">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="190">
+    <format dxfId="487">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="189">
+    <format dxfId="486">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="188">
+    <format dxfId="485">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="187">
+    <format dxfId="484">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="186">
+    <format dxfId="483">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="185">
+    <format dxfId="482">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="184">
+    <format dxfId="481">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="183">
+    <format dxfId="480">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="182">
+    <format dxfId="479">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="181">
+    <format dxfId="478">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="180">
+    <format dxfId="477">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="179">
+    <format dxfId="476">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="178">
+    <format dxfId="475">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="177">
+    <format dxfId="474">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="176">
+    <format dxfId="473">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="175">
+    <format dxfId="472">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="174">
+    <format dxfId="471">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="173">
+    <format dxfId="470">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="172">
+    <format dxfId="469">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="171">
+    <format dxfId="468">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="170">
+    <format dxfId="467">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="169">
+    <format dxfId="466">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="168">
+    <format dxfId="465">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="167">
+    <format dxfId="464">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="166">
+    <format dxfId="463">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="165">
+    <format dxfId="462">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="164">
+    <format dxfId="461">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="163">
+    <format dxfId="460">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="162">
+    <format dxfId="459">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="161">
+    <format dxfId="458">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="160">
+    <format dxfId="457">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10915,16 +13782,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="159">
+    <format dxfId="456">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="158">
+    <format dxfId="455">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="157">
+    <format dxfId="454">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="156">
+    <format dxfId="453">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10934,7 +13801,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="155">
+    <format dxfId="452">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -10944,7 +13811,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="154">
+    <format dxfId="451">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10953,7 +13820,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="153">
+    <format dxfId="450">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10962,10 +13829,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="152">
+    <format dxfId="449">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="151">
+    <format dxfId="448">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10974,7 +13841,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="150">
+    <format dxfId="447">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10983,55 +13850,55 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="149">
+    <format dxfId="446">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="148">
+    <format dxfId="445">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="147">
+    <format dxfId="444">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="146">
+    <format dxfId="443">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="145">
+    <format dxfId="442">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="144">
+    <format dxfId="441">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="143">
+    <format dxfId="440">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="142">
+    <format dxfId="439">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="141">
+    <format dxfId="438">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="140">
+    <format dxfId="437">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="139">
+    <format dxfId="436">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="138">
+    <format dxfId="435">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="434">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -11259,6 +14126,740 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4076311B-824D-4C9D-86C4-E00FEA116784}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Years">
+  <location ref="A15:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="38">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="165" showAll="0">
+      <items count="33">
+        <item x="19"/>
+        <item x="13"/>
+        <item x="30"/>
+        <item x="21"/>
+        <item x="28"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="26"/>
+        <item x="31"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="27"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="24"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="22"/>
+        <item x="4"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="29"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of SALES" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="47">
+    <format dxfId="539">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="538">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="537">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="536">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="535">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="534">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="533">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="532">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="531">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="530">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="529">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="528">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="527">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="526">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="525">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="524">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="523">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="522">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="521">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="520">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="519">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="518">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="517">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="516">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="515">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="514">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="513">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="512">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="511">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="510">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="509">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="508">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="507">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="506">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="505">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="504">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="503">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="502">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="501">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="500">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="499">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="498">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="497">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="496">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="495">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="494">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="493">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F8CF543-DDF3-42C8-AD30-CE61545BCF0B}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="customer name">
+  <location ref="A4:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="38">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="165" showAll="0">
+      <items count="33">
+        <item x="19"/>
+        <item x="13"/>
+        <item x="30"/>
+        <item x="21"/>
+        <item x="28"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="26"/>
+        <item x="31"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="27"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="24"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="22"/>
+        <item x="4"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="29"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of SALES" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="48">
+    <format dxfId="587">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="586">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="585">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="584">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="583">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="582">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="581">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="580">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="579">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="578">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="577">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="576">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="575">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="574">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="573">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="572">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="571">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="570">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="569">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="568">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="567">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="566">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="565">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="564">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="563">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="562">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="561">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="560">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="559">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="558">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="557">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="556">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="555">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="554">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="553">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="552">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="551">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="550">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="549">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="548">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="547">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="546">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="545">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="544">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="543">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="542">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="541">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="540">
+      <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleDark22" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_CUSTOMER" xr10:uid="{CF3677E9-EF37-434D-9842-8D787AD0F759}" sourceName="CUSTOMER">
   <pivotTables>
@@ -11459,7 +15060,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="CUSTOMER" xr10:uid="{060CA602-407E-477A-A8BF-D0DDE0152AF2}" cache="Slicer_CUSTOMER" caption="CUSTOMER" startItem="1" style="SlicerStyleLight2" rowHeight="241300"/>
+  <slicer name="CUSTOMER" xr10:uid="{060CA602-407E-477A-A8BF-D0DDE0152AF2}" cache="Slicer_CUSTOMER" caption="CUSTOMER" style="SlicerStyleLight2" rowHeight="241300"/>
   <slicer name="REGION" xr10:uid="{079D7991-E042-41E0-B9FB-51E2AC3E1DF2}" cache="Slicer_REGION" caption="REGION" style="SlicerStyleDark6" rowHeight="241300"/>
   <slicer name="ORDER DATE" xr10:uid="{CCA17B98-BA5F-4366-96F6-FD2D418DA609}" cache="Slicer_ORDER_DATE" caption="ORDER DATE" style="SlicerStyleLight4" rowHeight="241300"/>
   <slicer name="SALES" xr10:uid="{6CA16DC9-5BE9-448E-9C5E-27A05495B111}" cache="Slicer_SALES" caption="SALES" style="SlicerStyleOther2" rowHeight="241300"/>
@@ -13469,7 +17070,7 @@
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13485,7 +17086,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13550,7 +17151,7 @@
       <c r="A5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="37">
         <v>191476</v>
       </c>
     </row>
@@ -13558,7 +17159,7 @@
       <c r="A6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="37">
         <v>190264</v>
       </c>
     </row>
@@ -13566,7 +17167,7 @@
       <c r="A7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="37">
         <v>224211</v>
       </c>
     </row>
@@ -13574,7 +17175,7 @@
       <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="37">
         <v>234589</v>
       </c>
     </row>
@@ -13582,7 +17183,7 @@
       <c r="A9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="37">
         <v>274127</v>
       </c>
     </row>
@@ -13590,7 +17191,7 @@
       <c r="A10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="37">
         <v>170305</v>
       </c>
     </row>
@@ -13598,7 +17199,7 @@
       <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="37">
         <v>199385</v>
       </c>
     </row>
@@ -13606,7 +17207,7 @@
       <c r="A12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="37">
         <v>292637</v>
       </c>
     </row>
@@ -13614,7 +17215,7 @@
       <c r="A13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="38">
         <v>1776994</v>
       </c>
     </row>
@@ -13631,7 +17232,7 @@
       <c r="A16" s="26">
         <v>2013</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="39">
         <v>662991</v>
       </c>
     </row>
@@ -13639,7 +17240,7 @@
       <c r="A17" s="26">
         <v>2014</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="39">
         <v>538679</v>
       </c>
     </row>
@@ -13647,7 +17248,7 @@
       <c r="A18" s="26">
         <v>2015</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="39">
         <v>575324</v>
       </c>
     </row>
@@ -13655,7 +17256,7 @@
       <c r="A19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="40">
         <v>1776994</v>
       </c>
     </row>
@@ -13671,14 +17272,14 @@
         <v>31</v>
       </c>
       <c r="Z22" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="42">
         <v>137429</v>
       </c>
     </row>
@@ -13686,7 +17287,7 @@
       <c r="A24" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="42">
         <v>107696</v>
       </c>
     </row>
@@ -13694,7 +17295,7 @@
       <c r="A25" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="42">
         <v>111916</v>
       </c>
     </row>
@@ -13702,7 +17303,7 @@
       <c r="A26" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="42">
         <v>185930</v>
       </c>
     </row>
@@ -13710,7 +17311,7 @@
       <c r="A27" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="42">
         <v>126448</v>
       </c>
     </row>
@@ -13718,7 +17319,7 @@
       <c r="A28" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="42">
         <v>207926</v>
       </c>
     </row>
@@ -13726,7 +17327,7 @@
       <c r="A29" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="42">
         <v>131541</v>
       </c>
     </row>
@@ -13734,7 +17335,7 @@
       <c r="A30" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="42">
         <v>123843</v>
       </c>
     </row>
@@ -13742,7 +17343,7 @@
       <c r="A31" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="42">
         <v>138903</v>
       </c>
     </row>
@@ -13750,18 +17351,18 @@
       <c r="A32" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="42">
         <v>147320</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="42">
         <v>138283</v>
       </c>
     </row>
@@ -13769,7 +17370,7 @@
       <c r="A34" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="42">
         <v>219759</v>
       </c>
     </row>
@@ -13777,7 +17378,7 @@
       <c r="A35" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="41">
         <v>1776994</v>
       </c>
     </row>
@@ -13797,7 +17398,7 @@
       <c r="A38" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="42">
         <v>5</v>
       </c>
       <c r="C38" s="29">
@@ -13808,7 +17409,7 @@
       <c r="A39" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="42">
         <v>4</v>
       </c>
       <c r="C39" s="29">
@@ -13819,7 +17420,7 @@
       <c r="A40" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="42">
         <v>5</v>
       </c>
       <c r="C40" s="29">
@@ -13830,7 +17431,7 @@
       <c r="A41" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="42">
         <v>5</v>
       </c>
       <c r="C41" s="29">
@@ -13841,7 +17442,7 @@
       <c r="A42" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="42">
         <v>4</v>
       </c>
       <c r="C42" s="29">
@@ -13852,7 +17453,7 @@
       <c r="A43" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="42">
         <v>4</v>
       </c>
       <c r="C43" s="29">
@@ -13863,7 +17464,7 @@
       <c r="A44" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="42">
         <v>5</v>
       </c>
       <c r="C44" s="29">
@@ -13874,7 +17475,7 @@
       <c r="A45" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="42">
         <v>5</v>
       </c>
       <c r="C45" s="29">
@@ -13885,10 +17486,10 @@
       <c r="A46" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="36">
         <v>37</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="36">
         <v>1776994</v>
       </c>
     </row>
